--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_79_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_79_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.0093852408788893, 2.5787057768485164]</t>
+          <t>[2.0201902305253023, 2.5679007872021034]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.33667822868975095, 0.6661376380160606]</t>
+          <t>[0.3364764199248622, 0.6663394467809494]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1.997748193538484e-07</v>
+        <v>2.049691587568958e-07</v>
       </c>
       <c r="V2" t="n">
-        <v>1.997748193538484e-07</v>
+        <v>2.049691587568958e-07</v>
       </c>
       <c r="W2" t="n">
         <v>5.255235235235425</v>
